--- a/DMSNewVSale_2025-10-22_12-15.xlsx
+++ b/DMSNewVSale_2025-10-22_12-15.xlsx
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>50.0000</t>
+  </si>
+  <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
   </si>
   <si>
     <t>STELLASIL 5 MG 30 TAB.</t>
@@ -1352,7 +1361,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1418,21 +1427,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>15</v>
@@ -1444,20 +1453,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1468,44 +1477,77 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>11</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>73</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>77</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="25" ht="25.5" customHeight="1">
-      <c r="N25" s="13">
-        <v>1104.7874999999999</v>
-      </c>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>76</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
-        <v>77</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
-        <v>78</v>
-      </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+    <row r="26" ht="26.25" customHeight="1">
+      <c r="N26" s="13">
+        <v>1135.7874999999999</v>
+      </c>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>79</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>80</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>81</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1604,10 +1646,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
